--- a/1_スケジュール実行/input/input.xlsx
+++ b/1_スケジュール実行/input/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shu/Desktop/scheduling_app/1_スケジュール実行/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480CC086-10DD-BE44-8E97-493A16082AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317EA268-C4E1-9A4F-9AF5-D8E2C88CEA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3260" yWindow="-22680" windowWidth="29400" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="74">
   <si>
     <t>日付</t>
   </si>
@@ -164,9 +164,6 @@
     <t>数学・未定</t>
   </si>
   <si>
-    <t>国語・未定</t>
-  </si>
-  <si>
     <t>理科・松本</t>
   </si>
   <si>
@@ -245,9 +242,16 @@
     <t>社会の第2希望の先生</t>
   </si>
   <si>
-    <t>松本</t>
-    <rPh sb="0" eb="1">
-      <t>マツモト</t>
+    <t>国語・小澤</t>
+    <rPh sb="3" eb="5">
+      <t>オザワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>国語・小澤</t>
+    <rPh sb="3" eb="4">
+      <t>オザワ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -622,7 +626,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF101"/>
   <sheetViews>
-    <sheetView topLeftCell="B42" zoomScale="57" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="S63" sqref="S63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
@@ -1858,7 +1864,7 @@
         <v>42</v>
       </c>
       <c r="S13" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="T13" t="s">
         <v>37</v>
@@ -1950,7 +1956,7 @@
         <v>36</v>
       </c>
       <c r="Q14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -2461,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2568,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="AA20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB20" t="s">
         <v>35</v>
@@ -2669,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="AB21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC21" t="s">
         <v>35</v>
@@ -2770,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="AC22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD22" t="s">
         <v>32</v>
@@ -2975,7 +2981,7 @@
         <v>35</v>
       </c>
       <c r="AF24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:32">
@@ -3364,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="AE28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3422,8 +3428,8 @@
       <c r="Q29">
         <v>0</v>
       </c>
-      <c r="R29">
-        <v>0</v>
+      <c r="R29" t="s">
+        <v>32</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -4210,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="T37">
         <v>0</v>
@@ -4617,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -5282,7 +5288,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R48">
         <v>0</v>
@@ -5606,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="AA51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB51" t="s">
         <v>35</v>
@@ -5707,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="AB52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC52" t="s">
         <v>35</v>
@@ -5808,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="AC53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD53">
         <v>0</v>
@@ -6402,10 +6408,10 @@
         <v>0</v>
       </c>
       <c r="AE59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AF59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:32">
@@ -6460,8 +6466,8 @@
       <c r="Q60">
         <v>0</v>
       </c>
-      <c r="R60">
-        <v>0</v>
+      <c r="R60" t="s">
+        <v>32</v>
       </c>
       <c r="S60">
         <v>0</v>
@@ -6656,11 +6662,11 @@
       <c r="Q62">
         <v>0</v>
       </c>
-      <c r="R62">
-        <v>0</v>
+      <c r="R62" t="s">
+        <v>32</v>
       </c>
       <c r="S62" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="T62" t="s">
         <v>32</v>
@@ -6773,7 +6779,7 @@
         <v>33</v>
       </c>
       <c r="X63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y63">
         <v>0</v>
@@ -7468,10 +7474,10 @@
         <v>0</v>
       </c>
       <c r="AA70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC70">
         <v>0</v>
@@ -7572,7 +7578,7 @@
         <v>0</v>
       </c>
       <c r="AC71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD71" t="s">
         <v>32</v>
@@ -7636,8 +7642,8 @@
       <c r="Q72">
         <v>0</v>
       </c>
-      <c r="R72">
-        <v>0</v>
+      <c r="R72" t="s">
+        <v>32</v>
       </c>
       <c r="S72">
         <v>0</v>
@@ -8126,8 +8132,8 @@
       <c r="Q77">
         <v>0</v>
       </c>
-      <c r="R77">
-        <v>0</v>
+      <c r="R77" t="s">
+        <v>32</v>
       </c>
       <c r="S77">
         <v>0</v>
@@ -8855,7 +8861,7 @@
         <v>35</v>
       </c>
       <c r="AF84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:32">
@@ -8950,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="AE85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -10546,22 +10552,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -10873,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -11286,7 +11292,7 @@
         <v>2</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>99</v>
@@ -11497,7 +11503,7 @@
         <v>2</v>
       </c>
       <c r="H37">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -12092,7 +12098,7 @@
         <v>1</v>
       </c>
       <c r="G60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60">
         <v>99</v>
@@ -12144,10 +12150,10 @@
         <v>2</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -12404,7 +12410,7 @@
         <v>2</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
         <v>99</v>
@@ -12534,7 +12540,7 @@
         <v>2</v>
       </c>
       <c r="G77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77">
         <v>99</v>
@@ -15975,7 +15981,7 @@
         <v>1</v>
       </c>
       <c r="R29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29">
         <v>1</v>
@@ -19013,7 +19019,7 @@
         <v>1</v>
       </c>
       <c r="R60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60">
         <v>1</v>
@@ -19209,7 +19215,7 @@
         <v>1</v>
       </c>
       <c r="R62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S62">
         <v>0</v>
@@ -20189,7 +20195,7 @@
         <v>1</v>
       </c>
       <c r="R72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S72">
         <v>1</v>
@@ -20679,7 +20685,7 @@
         <v>1</v>
       </c>
       <c r="R77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S77">
         <v>1</v>
@@ -23098,7 +23104,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -23406,7 +23412,7 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -23747,7 +23753,7 @@
         <v>4</v>
       </c>
       <c r="C60">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -23769,7 +23775,7 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -23879,7 +23885,7 @@
         <v>1</v>
       </c>
       <c r="C72">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -23934,7 +23940,7 @@
         <v>1</v>
       </c>
       <c r="C77">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -24211,66 +24217,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -24305,17 +24309,17 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" t="s">
         <v>50</v>
       </c>
-      <c r="M2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" t="s">
-        <v>51</v>
-      </c>
       <c r="O2">
         <v>0</v>
       </c>
@@ -24323,10 +24327,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -24361,10 +24365,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -24417,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" t="s">
         <v>48</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>50</v>
-      </c>
-      <c r="M4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" t="s">
-        <v>51</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -24467,22 +24471,22 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" t="s">
         <v>51</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" t="s">
         <v>48</v>
-      </c>
-      <c r="K5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" t="s">
-        <v>49</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -24523,16 +24527,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" t="s">
         <v>48</v>
       </c>
-      <c r="J6" t="s">
-        <v>49</v>
-      </c>
       <c r="K6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -24585,16 +24589,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" t="s">
         <v>50</v>
-      </c>
-      <c r="L7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" t="s">
-        <v>51</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -24635,22 +24639,22 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s">
         <v>48</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" t="s">
         <v>49</v>
       </c>
-      <c r="K8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" t="s">
         <v>50</v>
-      </c>
-      <c r="M8" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" t="s">
-        <v>51</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -24697,16 +24701,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" t="s">
         <v>48</v>
-      </c>
-      <c r="L9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9" t="s">
-        <v>49</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -24753,22 +24757,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" t="s">
         <v>50</v>
       </c>
-      <c r="L10" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>51</v>
       </c>
-      <c r="N10" t="s">
-        <v>52</v>
-      </c>
       <c r="O10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -24815,10 +24819,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -24865,10 +24869,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -24921,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -24977,16 +24981,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" t="s">
         <v>48</v>
       </c>
-      <c r="M14" t="s">
-        <v>49</v>
-      </c>
       <c r="N14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -25039,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -25101,16 +25105,16 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>47</v>
+      </c>
+      <c r="R16" t="s">
         <v>50</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>48</v>
-      </c>
-      <c r="R16" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -25127,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -25145,7 +25149,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -25157,16 +25161,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -25201,16 +25205,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L18" t="s">
+        <v>49</v>
+      </c>
+      <c r="M18" t="s">
+        <v>51</v>
+      </c>
+      <c r="N18" t="s">
         <v>50</v>
-      </c>
-      <c r="M18" t="s">
-        <v>52</v>
-      </c>
-      <c r="N18" t="s">
-        <v>51</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -25251,22 +25255,22 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" t="s">
         <v>51</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>49</v>
       </c>
-      <c r="K19" t="s">
-        <v>52</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N19" t="s">
         <v>50</v>
-      </c>
-      <c r="M19" t="s">
-        <v>52</v>
-      </c>
-      <c r="N19" t="s">
-        <v>51</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -25307,34 +25311,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" t="s">
         <v>49</v>
       </c>
-      <c r="J20" t="s">
+      <c r="M20" t="s">
+        <v>51</v>
+      </c>
+      <c r="N20" t="s">
+        <v>50</v>
+      </c>
+      <c r="O20" t="s">
+        <v>49</v>
+      </c>
+      <c r="P20" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>47</v>
+      </c>
+      <c r="R20" t="s">
         <v>48</v>
-      </c>
-      <c r="K20" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" t="s">
-        <v>50</v>
-      </c>
-      <c r="M20" t="s">
-        <v>52</v>
-      </c>
-      <c r="N20" t="s">
-        <v>51</v>
-      </c>
-      <c r="O20" t="s">
-        <v>50</v>
-      </c>
-      <c r="P20" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>48</v>
-      </c>
-      <c r="R20" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -25363,16 +25367,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" t="s">
         <v>51</v>
       </c>
-      <c r="K21" t="s">
-        <v>52</v>
-      </c>
       <c r="L21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -25419,22 +25423,22 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" t="s">
+        <v>49</v>
+      </c>
+      <c r="L22" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" t="s">
         <v>51</v>
       </c>
-      <c r="J22" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="N22" t="s">
         <v>50</v>
-      </c>
-      <c r="L22" t="s">
-        <v>48</v>
-      </c>
-      <c r="M22" t="s">
-        <v>52</v>
-      </c>
-      <c r="N22" t="s">
-        <v>51</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -25481,28 +25485,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
+        <v>49</v>
+      </c>
+      <c r="L23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" t="s">
+        <v>48</v>
+      </c>
+      <c r="N23" t="s">
         <v>50</v>
       </c>
-      <c r="L23" t="s">
+      <c r="O23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P23" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>47</v>
+      </c>
+      <c r="R23" t="s">
         <v>48</v>
-      </c>
-      <c r="M23" t="s">
-        <v>49</v>
-      </c>
-      <c r="N23" t="s">
-        <v>51</v>
-      </c>
-      <c r="O23" t="s">
-        <v>52</v>
-      </c>
-      <c r="P23" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>48</v>
-      </c>
-      <c r="R23" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -25537,16 +25541,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L24" t="s">
+        <v>49</v>
+      </c>
+      <c r="M24" t="s">
         <v>50</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>51</v>
-      </c>
-      <c r="N24" t="s">
-        <v>52</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -25587,34 +25591,34 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J25" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25" t="s">
+        <v>47</v>
+      </c>
+      <c r="M25" t="s">
         <v>51</v>
       </c>
-      <c r="K25" t="s">
+      <c r="N25" t="s">
         <v>50</v>
       </c>
-      <c r="L25" t="s">
-        <v>48</v>
-      </c>
-      <c r="M25" t="s">
-        <v>52</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
+        <v>49</v>
+      </c>
+      <c r="P25" t="s">
         <v>51</v>
       </c>
-      <c r="O25" t="s">
+      <c r="Q25" t="s">
         <v>50</v>
       </c>
-      <c r="P25" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>51</v>
-      </c>
       <c r="R25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -25643,34 +25647,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+      <c r="K26" t="s">
+        <v>51</v>
+      </c>
+      <c r="L26" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" t="s">
         <v>48</v>
       </c>
-      <c r="J26" t="s">
+      <c r="N26" t="s">
         <v>51</v>
       </c>
-      <c r="K26" t="s">
-        <v>52</v>
-      </c>
-      <c r="L26" t="s">
-        <v>50</v>
-      </c>
-      <c r="M26" t="s">
+      <c r="O26" t="s">
+        <v>51</v>
+      </c>
+      <c r="P26" t="s">
         <v>49</v>
       </c>
-      <c r="N26" t="s">
-        <v>52</v>
-      </c>
-      <c r="O26" t="s">
-        <v>52</v>
-      </c>
-      <c r="P26" t="s">
-        <v>50</v>
-      </c>
       <c r="Q26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -25699,34 +25703,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27" t="s">
+        <v>49</v>
+      </c>
+      <c r="L27" t="s">
         <v>51</v>
       </c>
-      <c r="J27" t="s">
+      <c r="M27" t="s">
+        <v>51</v>
+      </c>
+      <c r="N27" t="s">
         <v>48</v>
       </c>
-      <c r="K27" t="s">
+      <c r="O27" t="s">
+        <v>51</v>
+      </c>
+      <c r="P27" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>48</v>
+      </c>
+      <c r="R27" t="s">
         <v>50</v>
-      </c>
-      <c r="L27" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" t="s">
-        <v>52</v>
-      </c>
-      <c r="N27" t="s">
-        <v>49</v>
-      </c>
-      <c r="O27" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>49</v>
-      </c>
-      <c r="R27" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -25755,34 +25759,34 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" t="s">
+        <v>51</v>
+      </c>
+      <c r="M28" t="s">
+        <v>51</v>
+      </c>
+      <c r="N28" t="s">
+        <v>50</v>
+      </c>
+      <c r="O28" t="s">
+        <v>51</v>
+      </c>
+      <c r="P28" t="s">
         <v>49</v>
       </c>
-      <c r="J28" t="s">
+      <c r="Q28" t="s">
         <v>48</v>
       </c>
-      <c r="K28" t="s">
-        <v>48</v>
-      </c>
-      <c r="L28" t="s">
-        <v>52</v>
-      </c>
-      <c r="M28" t="s">
-        <v>52</v>
-      </c>
-      <c r="N28" t="s">
-        <v>51</v>
-      </c>
-      <c r="O28" t="s">
-        <v>52</v>
-      </c>
-      <c r="P28" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>49</v>
-      </c>
       <c r="R28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -25811,34 +25815,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" t="s">
         <v>48</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
+        <v>51</v>
+      </c>
+      <c r="L29" t="s">
         <v>49</v>
       </c>
-      <c r="K29" t="s">
-        <v>52</v>
-      </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>50</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
+        <v>48</v>
+      </c>
+      <c r="O29" t="s">
+        <v>49</v>
+      </c>
+      <c r="P29" t="s">
         <v>51</v>
       </c>
-      <c r="N29" t="s">
-        <v>49</v>
-      </c>
-      <c r="O29" t="s">
-        <v>50</v>
-      </c>
-      <c r="P29" t="s">
-        <v>52</v>
-      </c>
       <c r="Q29" t="s">
+        <v>47</v>
+      </c>
+      <c r="R29" t="s">
         <v>48</v>
-      </c>
-      <c r="R29" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -25867,34 +25871,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" t="s">
+        <v>51</v>
+      </c>
+      <c r="L30" t="s">
         <v>49</v>
       </c>
-      <c r="J30" t="s">
-        <v>48</v>
-      </c>
-      <c r="K30" t="s">
-        <v>52</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N30" t="s">
         <v>50</v>
       </c>
-      <c r="M30" t="s">
-        <v>52</v>
-      </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>51</v>
       </c>
-      <c r="O30" t="s">
-        <v>52</v>
-      </c>
       <c r="P30" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q30" t="s">
         <v>50</v>
       </c>
-      <c r="Q30" t="s">
-        <v>51</v>
-      </c>
       <c r="R30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -25923,34 +25927,34 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31" t="s">
+        <v>47</v>
+      </c>
+      <c r="L31" t="s">
         <v>51</v>
       </c>
-      <c r="J31" t="s">
+      <c r="M31" t="s">
+        <v>51</v>
+      </c>
+      <c r="N31" t="s">
         <v>48</v>
       </c>
-      <c r="K31" t="s">
-        <v>48</v>
-      </c>
-      <c r="L31" t="s">
-        <v>52</v>
-      </c>
-      <c r="M31" t="s">
-        <v>52</v>
-      </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
+        <v>51</v>
+      </c>
+      <c r="P31" t="s">
         <v>49</v>
       </c>
-      <c r="O31" t="s">
-        <v>52</v>
-      </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>50</v>
       </c>
-      <c r="Q31" t="s">
-        <v>51</v>
-      </c>
       <c r="R31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/1_スケジュール実行/input/input.xlsx
+++ b/1_スケジュール実行/input/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shu/Desktop/scheduling_app/1_スケジュール実行/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317EA268-C4E1-9A4F-9AF5-D8E2C88CEA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE4E957-5735-1E49-852F-A97BFAAC236E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3260" yWindow="-22680" windowWidth="29400" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="74">
   <si>
     <t>日付</t>
   </si>
@@ -161,7 +161,7 @@
     <t>社会・大野</t>
   </si>
   <si>
-    <t>数学・未定</t>
+    <t>国語・未定</t>
   </si>
   <si>
     <t>理科・松本</t>
@@ -242,14 +242,14 @@
     <t>社会の第2希望の先生</t>
   </si>
   <si>
-    <t>国語・小澤</t>
+    <t>数学・小澤</t>
     <rPh sb="3" eb="5">
       <t>オザワ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>国語・小澤</t>
+    <t>数学・小澤</t>
     <rPh sb="3" eb="4">
       <t>オザワ</t>
     </rPh>
@@ -272,6 +272,7 @@
       <b/>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
@@ -626,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="S63" sqref="S63"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1855,7 +1856,7 @@
         <v>32</v>
       </c>
       <c r="P13" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="Q13" t="s">
         <v>44</v>
@@ -1864,7 +1865,7 @@
         <v>42</v>
       </c>
       <c r="S13" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="T13" t="s">
         <v>37</v>
@@ -2582,8 +2583,8 @@
       <c r="AC20">
         <v>0</v>
       </c>
-      <c r="AD20" t="s">
-        <v>44</v>
+      <c r="AD20">
+        <v>0</v>
       </c>
       <c r="AE20">
         <v>0</v>
@@ -3428,8 +3429,8 @@
       <c r="Q29">
         <v>0</v>
       </c>
-      <c r="R29" t="s">
-        <v>32</v>
+      <c r="R29">
+        <v>0</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -4207,16 +4208,16 @@
         <v>0</v>
       </c>
       <c r="P37" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37" t="s">
         <v>45</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37" t="s">
-        <v>73</v>
       </c>
       <c r="T37">
         <v>0</v>
@@ -6466,8 +6467,8 @@
       <c r="Q60">
         <v>0</v>
       </c>
-      <c r="R60" t="s">
-        <v>32</v>
+      <c r="R60">
+        <v>0</v>
       </c>
       <c r="S60">
         <v>0</v>
@@ -6657,16 +6658,16 @@
         <v>0</v>
       </c>
       <c r="P62" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62" t="s">
         <v>45</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62" t="s">
-        <v>32</v>
-      </c>
-      <c r="S62" t="s">
-        <v>72</v>
       </c>
       <c r="T62" t="s">
         <v>32</v>
@@ -7286,8 +7287,8 @@
       <c r="AC68" t="s">
         <v>38</v>
       </c>
-      <c r="AD68" t="s">
-        <v>42</v>
+      <c r="AD68">
+        <v>0</v>
       </c>
       <c r="AE68">
         <v>0</v>
@@ -7642,8 +7643,8 @@
       <c r="Q72">
         <v>0</v>
       </c>
-      <c r="R72" t="s">
-        <v>32</v>
+      <c r="R72">
+        <v>0</v>
       </c>
       <c r="S72">
         <v>0</v>
@@ -8132,8 +8133,8 @@
       <c r="Q77">
         <v>0</v>
       </c>
-      <c r="R77" t="s">
-        <v>32</v>
+      <c r="R77">
+        <v>0</v>
       </c>
       <c r="S77">
         <v>0</v>
@@ -10879,7 +10880,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -11292,7 +11293,7 @@
         <v>2</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29">
         <v>99</v>
@@ -11503,7 +11504,7 @@
         <v>2</v>
       </c>
       <c r="H37">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -12098,7 +12099,7 @@
         <v>1</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60">
         <v>99</v>
@@ -12150,10 +12151,10 @@
         <v>2</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -12410,7 +12411,7 @@
         <v>2</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
         <v>99</v>
@@ -12540,7 +12541,7 @@
         <v>2</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77">
         <v>99</v>
@@ -15981,7 +15982,7 @@
         <v>1</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29">
         <v>1</v>
@@ -19019,7 +19020,7 @@
         <v>1</v>
       </c>
       <c r="R60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S60">
         <v>1</v>
@@ -19215,7 +19216,7 @@
         <v>1</v>
       </c>
       <c r="R62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S62">
         <v>0</v>
@@ -20195,7 +20196,7 @@
         <v>1</v>
       </c>
       <c r="R72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S72">
         <v>1</v>
@@ -20685,7 +20686,7 @@
         <v>1</v>
       </c>
       <c r="R77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S77">
         <v>1</v>
@@ -23412,7 +23413,7 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -23753,7 +23754,7 @@
         <v>4</v>
       </c>
       <c r="C60">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -23775,7 +23776,7 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -23885,7 +23886,7 @@
         <v>1</v>
       </c>
       <c r="C72">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -23940,7 +23941,7 @@
         <v>1</v>
       </c>
       <c r="C77">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -24217,7 +24218,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
@@ -24308,17 +24311,17 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N2" t="s">
-        <v>50</v>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -24326,11 +24329,11 @@
       <c r="P2">
         <v>0</v>
       </c>
-      <c r="Q2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" t="s">
-        <v>47</v>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -24364,11 +24367,11 @@
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" t="s">
-        <v>51</v>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -24420,17 +24423,17 @@
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" t="s">
-        <v>50</v>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -24470,23 +24473,23 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" t="s">
-        <v>48</v>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -24526,17 +24529,17 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" t="s">
-        <v>51</v>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -24588,17 +24591,17 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" t="s">
-        <v>50</v>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -24638,23 +24641,23 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" t="s">
-        <v>51</v>
-      </c>
-      <c r="N8" t="s">
-        <v>50</v>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -24700,17 +24703,17 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9" t="s">
-        <v>48</v>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -24756,23 +24759,23 @@
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" t="s">
-        <v>50</v>
-      </c>
-      <c r="N10" t="s">
-        <v>51</v>
-      </c>
-      <c r="O10" t="s">
-        <v>49</v>
-      </c>
-      <c r="P10" t="s">
-        <v>51</v>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -24818,11 +24821,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" t="s">
-        <v>48</v>
-      </c>
-      <c r="N11" t="s">
-        <v>50</v>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -24868,11 +24871,11 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L12" t="s">
-        <v>47</v>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -24924,17 +24927,17 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" t="s">
-        <v>51</v>
-      </c>
-      <c r="M13" t="s">
-        <v>51</v>
-      </c>
-      <c r="N13" t="s">
-        <v>50</v>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -24980,17 +24983,17 @@
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" t="s">
-        <v>47</v>
-      </c>
-      <c r="M14" t="s">
-        <v>48</v>
-      </c>
-      <c r="N14" t="s">
-        <v>51</v>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -25042,11 +25045,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15" t="s">
-        <v>48</v>
-      </c>
-      <c r="N15" t="s">
-        <v>50</v>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -25104,17 +25107,17 @@
       <c r="N16">
         <v>0</v>
       </c>
-      <c r="O16" t="s">
-        <v>51</v>
-      </c>
-      <c r="P16" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>47</v>
-      </c>
-      <c r="R16" t="s">
-        <v>50</v>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -25128,10 +25131,10 @@
         <v>17</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -25148,8 +25151,8 @@
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17" t="s">
-        <v>51</v>
+      <c r="K17">
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -25160,17 +25163,17 @@
       <c r="N17">
         <v>0</v>
       </c>
-      <c r="O17" t="s">
-        <v>49</v>
-      </c>
-      <c r="P17" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>48</v>
-      </c>
-      <c r="R17" t="s">
-        <v>47</v>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -25204,17 +25207,17 @@
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18" t="s">
-        <v>47</v>
-      </c>
-      <c r="L18" t="s">
-        <v>49</v>
-      </c>
-      <c r="M18" t="s">
-        <v>51</v>
-      </c>
-      <c r="N18" t="s">
-        <v>50</v>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -25254,23 +25257,23 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L19" t="s">
-        <v>49</v>
-      </c>
-      <c r="M19" t="s">
-        <v>51</v>
-      </c>
-      <c r="N19" t="s">
-        <v>50</v>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -25310,35 +25313,35 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" t="s">
-        <v>48</v>
-      </c>
-      <c r="J20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20" t="s">
-        <v>47</v>
-      </c>
-      <c r="L20" t="s">
-        <v>49</v>
-      </c>
-      <c r="M20" t="s">
-        <v>51</v>
-      </c>
-      <c r="N20" t="s">
-        <v>50</v>
-      </c>
-      <c r="O20" t="s">
-        <v>49</v>
-      </c>
-      <c r="P20" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>47</v>
-      </c>
-      <c r="R20" t="s">
-        <v>48</v>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -25366,17 +25369,17 @@
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21" t="s">
-        <v>47</v>
-      </c>
-      <c r="J21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" t="s">
-        <v>51</v>
-      </c>
-      <c r="L21" t="s">
-        <v>47</v>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -25422,23 +25425,23 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22" t="s">
-        <v>50</v>
-      </c>
-      <c r="J22" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22" t="s">
-        <v>49</v>
-      </c>
-      <c r="L22" t="s">
-        <v>47</v>
-      </c>
-      <c r="M22" t="s">
-        <v>51</v>
-      </c>
-      <c r="N22" t="s">
-        <v>50</v>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -25484,29 +25487,29 @@
       <c r="J23">
         <v>0</v>
       </c>
-      <c r="K23" t="s">
-        <v>49</v>
-      </c>
-      <c r="L23" t="s">
-        <v>47</v>
-      </c>
-      <c r="M23" t="s">
-        <v>48</v>
-      </c>
-      <c r="N23" t="s">
-        <v>50</v>
-      </c>
-      <c r="O23" t="s">
-        <v>51</v>
-      </c>
-      <c r="P23" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>47</v>
-      </c>
-      <c r="R23" t="s">
-        <v>48</v>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -25540,17 +25543,17 @@
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24" t="s">
-        <v>51</v>
-      </c>
-      <c r="L24" t="s">
-        <v>49</v>
-      </c>
-      <c r="M24" t="s">
-        <v>50</v>
-      </c>
-      <c r="N24" t="s">
-        <v>51</v>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -25590,35 +25593,35 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25" t="s">
-        <v>47</v>
-      </c>
-      <c r="J25" t="s">
-        <v>50</v>
-      </c>
-      <c r="K25" t="s">
-        <v>49</v>
-      </c>
-      <c r="L25" t="s">
-        <v>47</v>
-      </c>
-      <c r="M25" t="s">
-        <v>51</v>
-      </c>
-      <c r="N25" t="s">
-        <v>50</v>
-      </c>
-      <c r="O25" t="s">
-        <v>49</v>
-      </c>
-      <c r="P25" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>50</v>
-      </c>
-      <c r="R25" t="s">
-        <v>47</v>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -25646,35 +25649,35 @@
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="I26" t="s">
-        <v>47</v>
-      </c>
-      <c r="J26" t="s">
-        <v>50</v>
-      </c>
-      <c r="K26" t="s">
-        <v>51</v>
-      </c>
-      <c r="L26" t="s">
-        <v>49</v>
-      </c>
-      <c r="M26" t="s">
-        <v>48</v>
-      </c>
-      <c r="N26" t="s">
-        <v>51</v>
-      </c>
-      <c r="O26" t="s">
-        <v>51</v>
-      </c>
-      <c r="P26" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>48</v>
-      </c>
-      <c r="R26" t="s">
-        <v>47</v>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -25702,35 +25705,35 @@
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27" t="s">
-        <v>50</v>
-      </c>
-      <c r="J27" t="s">
-        <v>47</v>
-      </c>
-      <c r="K27" t="s">
-        <v>49</v>
-      </c>
-      <c r="L27" t="s">
-        <v>51</v>
-      </c>
-      <c r="M27" t="s">
-        <v>51</v>
-      </c>
-      <c r="N27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O27" t="s">
-        <v>51</v>
-      </c>
-      <c r="P27" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>48</v>
-      </c>
-      <c r="R27" t="s">
-        <v>50</v>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -25758,35 +25761,35 @@
       <c r="H28">
         <v>0</v>
       </c>
-      <c r="I28" t="s">
-        <v>48</v>
-      </c>
-      <c r="J28" t="s">
-        <v>47</v>
-      </c>
-      <c r="K28" t="s">
-        <v>47</v>
-      </c>
-      <c r="L28" t="s">
-        <v>51</v>
-      </c>
-      <c r="M28" t="s">
-        <v>51</v>
-      </c>
-      <c r="N28" t="s">
-        <v>50</v>
-      </c>
-      <c r="O28" t="s">
-        <v>51</v>
-      </c>
-      <c r="P28" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>48</v>
-      </c>
-      <c r="R28" t="s">
-        <v>47</v>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -25809,40 +25812,40 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29" t="s">
-        <v>47</v>
-      </c>
-      <c r="J29" t="s">
-        <v>48</v>
-      </c>
-      <c r="K29" t="s">
-        <v>51</v>
-      </c>
-      <c r="L29" t="s">
-        <v>49</v>
-      </c>
-      <c r="M29" t="s">
-        <v>50</v>
-      </c>
-      <c r="N29" t="s">
-        <v>48</v>
-      </c>
-      <c r="O29" t="s">
-        <v>49</v>
-      </c>
-      <c r="P29" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>47</v>
-      </c>
-      <c r="R29" t="s">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -25870,35 +25873,35 @@
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="I30" t="s">
-        <v>48</v>
-      </c>
-      <c r="J30" t="s">
-        <v>47</v>
-      </c>
-      <c r="K30" t="s">
-        <v>51</v>
-      </c>
-      <c r="L30" t="s">
-        <v>49</v>
-      </c>
-      <c r="M30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N30" t="s">
-        <v>50</v>
-      </c>
-      <c r="O30" t="s">
-        <v>51</v>
-      </c>
-      <c r="P30" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>50</v>
-      </c>
-      <c r="R30" t="s">
-        <v>47</v>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -25926,35 +25929,35 @@
       <c r="H31">
         <v>0</v>
       </c>
-      <c r="I31" t="s">
-        <v>50</v>
-      </c>
-      <c r="J31" t="s">
-        <v>47</v>
-      </c>
-      <c r="K31" t="s">
-        <v>47</v>
-      </c>
-      <c r="L31" t="s">
-        <v>51</v>
-      </c>
-      <c r="M31" t="s">
-        <v>51</v>
-      </c>
-      <c r="N31" t="s">
-        <v>48</v>
-      </c>
-      <c r="O31" t="s">
-        <v>51</v>
-      </c>
-      <c r="P31" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>50</v>
-      </c>
-      <c r="R31" t="s">
-        <v>47</v>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
